--- a/random_forest_data.xlsx
+++ b/random_forest_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cae1c14c3c8593/Documents/Machine Learning/project/random forest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{992ABF28-5AA9-4B4D-9DE8-E26EB7F69B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{410B48FD-FA0F-4166-8289-239563638310}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{992ABF28-5AA9-4B4D-9DE8-E26EB7F69B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C792500-30C0-45A0-8A24-12EC2F959AE9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BD65D5CB-F4AF-49E4-862F-BE31A7125398}"/>
   </bookViews>
@@ -201,15 +201,6 @@
     <t>Total Registered Commercial Vehicles (2018)</t>
   </si>
   <si>
-    <t>Registered EVs from 2011-2018</t>
-  </si>
-  <si>
-    <t>Registered HEVs from 2011-2018</t>
-  </si>
-  <si>
-    <t>Registered PHEVs from 2011-2018</t>
-  </si>
-  <si>
     <t>% People Drove Alone to Commute (2018)</t>
   </si>
   <si>
@@ -217,6 +208,15 @@
   </si>
   <si>
     <t>Change in Vehicles on Highway (2011-2018)</t>
+  </si>
+  <si>
+    <t>Total EV Sales from 2011-2018</t>
+  </si>
+  <si>
+    <t>Total HEV Sales from 2011-2018</t>
+  </si>
+  <si>
+    <t>Total PHEV Sales from 2011-2018</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E033A4D-ACCA-4C81-B5A3-4D8D42F6D4E8}">
   <dimension ref="B2:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -650,22 +650,22 @@
         <v>54</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="19.25" customHeight="1" x14ac:dyDescent="0.5">
